--- a/Untitled form (Responses).xlsx
+++ b/Untitled form (Responses).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerchen/Developer/Python/smr_scheduler/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F224E0C7-596E-8D4E-B854-D5642B4F042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Timestamp</t>
   </si>
@@ -68,31 +77,73 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1DoVK-zT97S1uHLggt2MF_jvUxSNFHNsh</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>9AM-11AM, 11AM-1PM, 1PM-3PM, 3PM-5PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jPsW1vZYKBuICF-qN-cyaysTcbySs4xF</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MY-KOj5Ah7G3_JJDh68d4-_zfLajPlhU</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,11 +151,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
-    <border/>
+  <borders count="16">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -118,6 +175,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -132,6 +190,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -146,153 +205,305 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K2" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:K5">
   <tableColumns count="11">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="First Name: " id="2"/>
-    <tableColumn name="Last Name:" id="3"/>
-    <tableColumn name="UCID:" id="4"/>
-    <tableColumn name="Are you senior?" id="5"/>
-    <tableColumn name="When is your weekly availability? [Monday]" id="6"/>
-    <tableColumn name="When is your weekly availability? [Tuesday]" id="7"/>
-    <tableColumn name="When is your weekly availability? [Wednesday]" id="8"/>
-    <tableColumn name="When is your weekly availability? [Thursday]" id="9"/>
-    <tableColumn name="When is your weekly availability? [Friday]" id="10"/>
-    <tableColumn name="Please send your schedule:" id="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="First Name: "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Last Name:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UCID:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Are you senior?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="When is your weekly availability? [Monday]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="When is your weekly availability? [Tuesday]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="When is your weekly availability? [Wednesday]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="When is your weekly availability? [Thursday]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="When is your weekly availability? [Friday]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Please send your schedule:"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -482,33 +693,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="18.88"/>
-    <col customWidth="1" min="6" max="6" width="35.88"/>
-    <col customWidth="1" min="7" max="7" width="36.13"/>
-    <col customWidth="1" min="8" max="8" width="37.63"/>
-    <col customWidth="1" min="9" max="9" width="36.75"/>
-    <col customWidth="1" min="10" max="10" width="34.5"/>
-    <col customWidth="1" min="11" max="11" width="25.0"/>
-    <col customWidth="1" min="12" max="17" width="18.88"/>
+    <col min="1" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
+    <col min="10" max="10" width="34.5" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="17" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,9 +757,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>45780.85236069444</v>
+        <v>45780.852360694444</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -554,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="5">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
@@ -576,15 +790,123 @@
       </c>
       <c r="K2" s="6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>45781.011366550927</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8">
+        <v>321</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>45781.011605092594</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11">
+        <v>321</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>45781.011366550927</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14">
+        <v>321</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{DA26B2DC-2512-2B47-863E-2A521EF5DED9}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>